--- a/biology/Zoologie/Grallaire_naine/Grallaire_naine.xlsx
+++ b/biology/Zoologie/Grallaire_naine/Grallaire_naine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Grallaricula nana
 La Grallaire naine (Grallaricula nana) est une espèce d'oiseaux de la famille des Grallariidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'adulte type mesure environ 12 cm pour un poids de 18 g à 24 g (pour les mâles) et le dimorphisme sexuel est peu prononcé.
 </t>
@@ -543,7 +557,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est répandu à travers le nord de la cordillère des Andes, avec une sous-espèce (G. n. kukenamensis) présente à travers les tepuys du Venezuela et de l'ouest du Guyana.
 Son habitat naturel est subtropical, des forêts tropicales humides d'altitude.
@@ -575,7 +591,9 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Selon le Congrès ornithologique international :
 sous-espèce Grallaricula nana hallsi T.M.Donegan, 2008
